--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,15 @@
   <si>
     <t>+(91)-33-22041100,22236026</t>
   </si>
+  <si>
+    <t>Central Blood Bank</t>
+  </si>
+  <si>
+    <t>Vivekananda Road, Beadon Street, Kolkata - 700006, Near Maniktalla More</t>
+  </si>
+  <si>
+    <t>033-2351-0619,2351-0620</t>
+  </si>
 </sst>
 </file>
 
@@ -66,13 +75,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -80,14 +82,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,22 +103,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -128,22 +114,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,20 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -187,6 +143,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -195,15 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,19 +227,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,163 +407,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,13 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,21 +455,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -487,16 +485,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,158 +507,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -988,13 +1000,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1014,8 +1026,19 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
